--- a/english.xlsx
+++ b/english.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repos\Text_Sentiment_Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8C66DCD-39BE-4CA7-819F-9BFDDFB1B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C18A18A-9492-4DF3-A7D5-4D8CF962CC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9408" xr2:uid="{7A0393BC-3233-4EA8-8BBA-19D2C37475DE}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{7A0393BC-3233-4EA8-8BBA-19D2C37475DE}"/>
   </bookViews>
   <sheets>
     <sheet name="file1" sheetId="1" r:id="rId1"/>
@@ -20,39 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>tweets</t>
   </si>
   <si>
-    <t>I love the new features in this app, it's amazing!</t>
-  </si>
-  <si>
-    <t>The customer service was horrible, I will never use this again.</t>
-  </si>
-  <si>
-    <t>It's okay, nothing special but it works fine.</t>
-  </si>
-  <si>
-    <t>I had a fantastic experience with the support team, they were so helpful!</t>
-  </si>
-  <si>
-    <t>This product is not worth the money, very disappointed.</t>
-  </si>
-  <si>
-    <t>The quality of the product is decent, but shipping took forever.</t>
-  </si>
-  <si>
-    <t>Absolutely loved the service, will recommend to my friends.</t>
-  </si>
-  <si>
-    <t>I didnâ€™t hate it, but it didnâ€™t really meet my expectations either.</t>
-  </si>
-  <si>
-    <t>The food was great, but the waiting time was too long.</t>
-  </si>
-  <si>
-    <t>I found the interface a bit confusing, but I eventually figured it out.</t>
+    <t>It was cool near the beach at night</t>
+  </si>
+  <si>
+    <t>The food at the restaurant was delicious</t>
+  </si>
+  <si>
+    <t>This is the best meal I've ever had</t>
+  </si>
+  <si>
+    <t>I had a terrible experience with the customer service</t>
+  </si>
+  <si>
+    <t>I'm very disappointed with the product quality</t>
+  </si>
+  <si>
+    <t>The food tasted terrible and was cold</t>
+  </si>
+  <si>
+    <t>This app has a terrible user interface, I am frustrated with this horrible service</t>
+  </si>
+  <si>
+    <t>I went to the grocery store yesterday</t>
+  </si>
+  <si>
+    <t>I went to the grocery store yesterday.</t>
+  </si>
+  <si>
+    <t>The book is on the table</t>
+  </si>
+  <si>
+    <t>There is a concert in the park tomorrow</t>
+  </si>
+  <si>
+    <t>This book changed my perspective on life</t>
   </si>
 </sst>
 </file>
@@ -893,9 +899,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{619777DE-C7AE-4C81-8217-34C0E3D6414D}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -954,6 +962,16 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
